--- a/Provvisorio.xlsx
+++ b/Provvisorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10834079_polimi_it/Documents/Quarto anno/Primo semestre/EPS/Projects/Project 1 - Power Flow Analysis/ProgettoEPS1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{3CC837FA-ED65-4767-9870-5457D25183E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26042768-27D5-439D-A547-19A7B78A34AB}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{3CC837FA-ED65-4767-9870-5457D25183E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F9DD23A-24A4-4302-A0E6-87D2D7465010}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="109">
   <si>
     <t>Node</t>
   </si>
@@ -6550,8 +6550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F7985-A012-40CC-9F1A-039713B93512}">
   <dimension ref="E6:AQ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z101" sqref="Z101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6564,7 +6564,7 @@
     <col min="19" max="19" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E6" s="5" t="s">
         <v>64</v>
       </c>
@@ -6575,12 +6575,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="5:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="5:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>65</v>
       </c>
@@ -6602,11 +6602,8 @@
       <c r="K8" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="5:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>1</v>
       </c>
@@ -6628,29 +6625,8 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="Z9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="5:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>2</v>
       </c>
@@ -6664,37 +6640,16 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>-19.66</v>
+        <v>-18.64</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.66</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:32" x14ac:dyDescent="0.35">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="11" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>3</v>
       </c>
@@ -6708,37 +6663,16 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>-14.84</v>
+        <v>-10</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.84</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD11">
-        <v>-0.01</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="5:32" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>4</v>
       </c>
@@ -6752,37 +6686,16 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>-9.91</v>
+        <v>-28.14</v>
       </c>
       <c r="J12">
-        <v>83.39</v>
+        <v>86.42</v>
       </c>
       <c r="K12">
-        <v>83.97</v>
-      </c>
-      <c r="Z12">
-        <v>3</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD12">
-        <v>2.77</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="13" spans="5:32" x14ac:dyDescent="0.35">
+        <v>90.89</v>
+      </c>
+    </row>
+    <row r="13" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>5</v>
       </c>
@@ -6796,37 +6709,16 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>-2.23</v>
+        <v>3.13</v>
       </c>
       <c r="J13">
-        <v>0.03</v>
+        <v>-0.09</v>
       </c>
       <c r="K13">
-        <v>2.23</v>
-      </c>
-      <c r="Z13">
-        <v>4</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD13">
-        <v>-0.03</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="5:32" x14ac:dyDescent="0.35">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="14" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>6</v>
       </c>
@@ -6840,37 +6732,16 @@
         <v>9</v>
       </c>
       <c r="I14">
-        <v>-45.09</v>
+        <v>-51.23</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>45.09</v>
-      </c>
-      <c r="Z14">
-        <v>5</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD14">
-        <v>-0.01</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="5:32" x14ac:dyDescent="0.35">
+        <v>51.23</v>
+      </c>
+    </row>
+    <row r="15" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>7</v>
       </c>
@@ -6884,37 +6755,16 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>-30.08</v>
+        <v>-22.96</v>
       </c>
       <c r="J15">
-        <v>13.4</v>
+        <v>1.8</v>
       </c>
       <c r="K15">
-        <v>32.92</v>
-      </c>
-      <c r="Z15">
-        <v>6</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD15">
-        <v>-0.02</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="5:32" x14ac:dyDescent="0.35">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="16" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>8</v>
       </c>
@@ -6928,37 +6778,16 @@
         <v>9</v>
       </c>
       <c r="I16">
-        <v>-0.46</v>
+        <v>-0.21</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.46</v>
-      </c>
-      <c r="Z16">
-        <v>7</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD16">
-        <v>-0.02</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="5:43" x14ac:dyDescent="0.35">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E17">
         <v>9</v>
       </c>
@@ -6972,37 +6801,16 @@
         <v>11</v>
       </c>
       <c r="I17">
-        <v>-29.89</v>
+        <v>-30.52</v>
       </c>
       <c r="J17">
-        <v>19.3</v>
+        <v>6.76</v>
       </c>
       <c r="K17">
-        <v>35.58</v>
-      </c>
-      <c r="Z17">
-        <v>8</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:43" x14ac:dyDescent="0.35">
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>10</v>
       </c>
@@ -7016,37 +6824,16 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>-3.68</v>
+        <v>-4.96</v>
       </c>
       <c r="J18">
-        <v>18.89</v>
+        <v>17.03</v>
       </c>
       <c r="K18">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="Z18">
-        <v>9</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD18">
-        <v>-0.02</v>
-      </c>
-      <c r="AE18">
-        <v>0.01</v>
-      </c>
-      <c r="AF18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="5:43" x14ac:dyDescent="0.35">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>11</v>
       </c>
@@ -7068,29 +6855,8 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>10</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD19">
-        <v>-0.01</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>12</v>
       </c>
@@ -7104,37 +6870,16 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>3.16</v>
+        <v>2.29</v>
       </c>
       <c r="J20">
-        <v>15.07</v>
+        <v>15.94</v>
       </c>
       <c r="K20">
-        <v>15.4</v>
-      </c>
-      <c r="Z20">
-        <v>11</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:43" x14ac:dyDescent="0.35">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E21">
         <v>13</v>
       </c>
@@ -7148,37 +6893,16 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>-9.3699999999999992</v>
+        <v>-10.02</v>
       </c>
       <c r="J21">
-        <v>6.14</v>
+        <v>4.41</v>
       </c>
       <c r="K21">
-        <v>11.2</v>
-      </c>
-      <c r="Z21">
-        <v>12</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:43" x14ac:dyDescent="0.35">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E22">
         <v>14</v>
       </c>
@@ -7192,7 +6916,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="J22">
         <v>0.01</v>
@@ -7200,57 +6924,13 @@
       <c r="K22">
         <v>0.02</v>
       </c>
-      <c r="Z22">
-        <v>13</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:43" x14ac:dyDescent="0.35">
-      <c r="Z23">
-        <v>14</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="5:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>65</v>
       </c>
@@ -7305,11 +6985,8 @@
       <c r="V25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>1</v>
       </c>
@@ -7329,13 +7006,13 @@
         <v>73.14</v>
       </c>
       <c r="K26">
-        <v>-20.69</v>
+        <v>-61.44</v>
       </c>
       <c r="L26">
-        <v>-5.74</v>
+        <v>-14.48</v>
       </c>
       <c r="M26">
-        <v>38.69</v>
+        <v>43.1</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -7349,62 +7026,8 @@
       <c r="V26">
         <v>1</v>
       </c>
-      <c r="Z26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>2</v>
       </c>
@@ -7424,13 +7047,13 @@
         <v>72.105000000000004</v>
       </c>
       <c r="K27">
-        <v>-20.13</v>
+        <v>-60.71</v>
       </c>
       <c r="L27">
         <v>40</v>
       </c>
       <c r="M27">
-        <v>15.92</v>
+        <v>22.38</v>
       </c>
       <c r="N27">
         <v>21.7</v>
@@ -7456,47 +7079,8 @@
       <c r="V27">
         <v>1</v>
       </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AC27">
-        <v>69</v>
-      </c>
-      <c r="AD27">
-        <v>1.06</v>
-      </c>
-      <c r="AE27">
-        <v>73.14</v>
-      </c>
-      <c r="AF27">
-        <v>-20.69</v>
-      </c>
-      <c r="AG27">
-        <v>159.04</v>
-      </c>
-      <c r="AH27">
-        <v>-10.29</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>3</v>
       </c>
@@ -7516,13 +7100,13 @@
         <v>69.69</v>
       </c>
       <c r="K28">
-        <v>-20.92</v>
+        <v>-61.6</v>
       </c>
       <c r="L28">
         <v>65</v>
       </c>
       <c r="M28">
-        <v>2.65</v>
+        <v>8.25</v>
       </c>
       <c r="N28">
         <v>94.2</v>
@@ -7548,59 +7132,8 @@
       <c r="V28">
         <v>1</v>
       </c>
-      <c r="Z28">
-        <v>2</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
-        <v>69</v>
-      </c>
-      <c r="AD28">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="AE28">
-        <v>72.105000000000004</v>
-      </c>
-      <c r="AF28">
-        <v>-23.83</v>
-      </c>
-      <c r="AG28">
-        <v>40</v>
-      </c>
-      <c r="AH28">
-        <v>7.99</v>
-      </c>
-      <c r="AI28">
-        <v>21.7</v>
-      </c>
-      <c r="AJ28">
-        <v>12.7</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>4</v>
       </c>
@@ -7614,13 +7147,13 @@
         <v>69</v>
       </c>
       <c r="I29">
-        <v>1.0093099999999999</v>
+        <v>1.00299</v>
       </c>
       <c r="J29">
-        <v>69.643000000000001</v>
+        <v>69.206000000000003</v>
       </c>
       <c r="K29">
-        <v>-20.54</v>
+        <v>-60.62</v>
       </c>
       <c r="N29">
         <v>47.8</v>
@@ -7649,59 +7182,8 @@
       <c r="V29">
         <v>1</v>
       </c>
-      <c r="Z29">
-        <v>3</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AC29">
-        <v>69</v>
-      </c>
-      <c r="AD29">
-        <v>1.01</v>
-      </c>
-      <c r="AE29">
-        <v>69.69</v>
-      </c>
-      <c r="AF29">
-        <v>-27.44</v>
-      </c>
-      <c r="AG29">
-        <v>65</v>
-      </c>
-      <c r="AH29">
-        <v>-9.0399999999999991</v>
-      </c>
-      <c r="AI29">
-        <v>94.2</v>
-      </c>
-      <c r="AJ29">
-        <v>19</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>5</v>
       </c>
@@ -7715,13 +7197,13 @@
         <v>69</v>
       </c>
       <c r="I30">
-        <v>1.0277499999999999</v>
+        <v>1.0239799999999999</v>
       </c>
       <c r="J30">
-        <v>70.914000000000001</v>
+        <v>70.653999999999996</v>
       </c>
       <c r="K30">
-        <v>-20.61</v>
+        <v>-60.83</v>
       </c>
       <c r="N30">
         <v>7.6</v>
@@ -7747,56 +7229,8 @@
       <c r="V30">
         <v>1</v>
       </c>
-      <c r="Z30">
-        <v>4</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>69</v>
-      </c>
-      <c r="AD30">
-        <v>1.0361800000000001</v>
-      </c>
-      <c r="AE30">
-        <v>71.495999999999995</v>
-      </c>
-      <c r="AF30">
-        <v>-28.38</v>
-      </c>
-      <c r="AI30">
-        <v>47.8</v>
-      </c>
-      <c r="AJ30">
-        <v>-3.9</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>6</v>
       </c>
@@ -7816,13 +7250,13 @@
         <v>14.766</v>
       </c>
       <c r="K31">
-        <v>-21.98</v>
+        <v>-63.03</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>77.33</v>
+        <v>83.15</v>
       </c>
       <c r="N31">
         <v>11.2</v>
@@ -7848,53 +7282,8 @@
       <c r="V31">
         <v>1</v>
       </c>
-      <c r="Z31">
-        <v>5</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>69</v>
-      </c>
-      <c r="AD31">
-        <v>1.0399</v>
-      </c>
-      <c r="AE31">
-        <v>71.753</v>
-      </c>
-      <c r="AF31">
-        <v>-27.4</v>
-      </c>
-      <c r="AI31">
-        <v>7.6</v>
-      </c>
-      <c r="AJ31">
-        <v>1.6</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>7</v>
       </c>
@@ -7908,13 +7297,13 @@
         <v>13.8</v>
       </c>
       <c r="I32">
-        <v>1.0446500000000001</v>
+        <v>1.0115099999999999</v>
       </c>
       <c r="J32">
-        <v>14.416</v>
+        <v>13.959</v>
       </c>
       <c r="K32">
-        <v>-21.6</v>
+        <v>-62.21</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -7940,59 +7329,8 @@
       <c r="V32">
         <v>1</v>
       </c>
-      <c r="Z32">
-        <v>6</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB32">
-        <v>1</v>
-      </c>
-      <c r="AC32">
-        <v>13.8</v>
-      </c>
-      <c r="AD32">
-        <v>1.07</v>
-      </c>
-      <c r="AE32">
-        <v>14.766</v>
-      </c>
-      <c r="AF32">
-        <v>-34.78</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>31.9</v>
-      </c>
-      <c r="AI32">
-        <v>11.2</v>
-      </c>
-      <c r="AJ32">
-        <v>7.5</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>8</v>
       </c>
@@ -8012,13 +7350,13 @@
         <v>19.62</v>
       </c>
       <c r="K33">
-        <v>-21.56</v>
+        <v>-62.19</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>66.91</v>
+        <v>15.67</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -8032,53 +7370,8 @@
       <c r="V33">
         <v>1</v>
       </c>
-      <c r="Z33">
-        <v>7</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AC33">
-        <v>13.8</v>
-      </c>
-      <c r="AD33">
-        <v>1.0829200000000001</v>
-      </c>
-      <c r="AE33">
-        <v>14.944000000000001</v>
-      </c>
-      <c r="AF33">
-        <v>-34.43</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>9</v>
       </c>
@@ -8092,13 +7385,13 @@
         <v>13.8</v>
       </c>
       <c r="I34">
-        <v>1.0139</v>
+        <v>1.0018199999999999</v>
       </c>
       <c r="J34">
-        <v>13.992000000000001</v>
+        <v>13.824999999999999</v>
       </c>
       <c r="K34">
-        <v>-21.88</v>
+        <v>-62.39</v>
       </c>
       <c r="N34">
         <v>29.5</v>
@@ -8113,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>19.53</v>
+        <v>19.07</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -8127,47 +7420,8 @@
       <c r="V34">
         <v>1</v>
       </c>
-      <c r="Z34">
-        <v>8</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB34">
-        <v>1</v>
-      </c>
-      <c r="AC34">
-        <v>18</v>
-      </c>
-      <c r="AD34">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AE34">
-        <v>19.62</v>
-      </c>
-      <c r="AF34">
-        <v>-34.43</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>41.98</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E35">
         <v>10</v>
       </c>
@@ -8181,13 +7435,13 @@
         <v>13.8</v>
       </c>
       <c r="I35">
-        <v>1.0040100000000001</v>
+        <v>0.99558000000000002</v>
       </c>
       <c r="J35">
-        <v>13.855</v>
+        <v>13.739000000000001</v>
       </c>
       <c r="K35">
-        <v>-21.75</v>
+        <v>-62.33</v>
       </c>
       <c r="N35">
         <v>9</v>
@@ -8213,56 +7467,8 @@
       <c r="V35">
         <v>1</v>
       </c>
-      <c r="Z35">
-        <v>9</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>13.8</v>
-      </c>
-      <c r="AD35">
-        <v>1.0678000000000001</v>
-      </c>
-      <c r="AE35">
-        <v>14.736000000000001</v>
-      </c>
-      <c r="AF35">
-        <v>-35.53</v>
-      </c>
-      <c r="AI35">
-        <v>29.5</v>
-      </c>
-      <c r="AJ35">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>21.66</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E36">
         <v>11</v>
       </c>
@@ -8276,13 +7482,13 @@
         <v>13.8</v>
       </c>
       <c r="I36">
-        <v>1.0329600000000001</v>
+        <v>1.0286900000000001</v>
       </c>
       <c r="J36">
-        <v>14.255000000000001</v>
+        <v>14.196</v>
       </c>
       <c r="K36">
-        <v>-21.97</v>
+        <v>-62.78</v>
       </c>
       <c r="N36">
         <v>3.5</v>
@@ -8308,53 +7514,8 @@
       <c r="V36">
         <v>1</v>
       </c>
-      <c r="Z36">
-        <v>10</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>13.8</v>
-      </c>
-      <c r="AD36">
-        <v>1.06084</v>
-      </c>
-      <c r="AE36">
-        <v>14.64</v>
-      </c>
-      <c r="AF36">
-        <v>-35.67</v>
-      </c>
-      <c r="AI36">
-        <v>9</v>
-      </c>
-      <c r="AJ36">
-        <v>5.8</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E37">
         <v>12</v>
       </c>
@@ -8368,13 +7529,13 @@
         <v>13.8</v>
       </c>
       <c r="I37">
-        <v>1.0264500000000001</v>
+        <v>1.02589</v>
       </c>
       <c r="J37">
-        <v>14.164999999999999</v>
+        <v>14.157</v>
       </c>
       <c r="K37">
-        <v>-22.07</v>
+        <v>-62.98</v>
       </c>
       <c r="N37">
         <v>6.1</v>
@@ -8403,53 +7564,8 @@
       <c r="V37">
         <v>1</v>
       </c>
-      <c r="Z37">
-        <v>11</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AC37">
-        <v>13.8</v>
-      </c>
-      <c r="AD37">
-        <v>1.0619799999999999</v>
-      </c>
-      <c r="AE37">
-        <v>14.654999999999999</v>
-      </c>
-      <c r="AF37">
-        <v>-35.36</v>
-      </c>
-      <c r="AI37">
-        <v>3.5</v>
-      </c>
-      <c r="AJ37">
-        <v>1.8</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E38">
         <v>13</v>
       </c>
@@ -8463,13 +7579,13 @@
         <v>13.8</v>
       </c>
       <c r="I38">
-        <v>1.0358700000000001</v>
+        <v>1.0356300000000001</v>
       </c>
       <c r="J38">
-        <v>14.295</v>
+        <v>14.292</v>
       </c>
       <c r="K38">
-        <v>-22.19</v>
+        <v>-63.15</v>
       </c>
       <c r="N38">
         <v>13.5</v>
@@ -8495,56 +7611,8 @@
       <c r="V38">
         <v>1</v>
       </c>
-      <c r="Z38">
-        <v>12</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB38">
-        <v>1</v>
-      </c>
-      <c r="AC38">
-        <v>13.8</v>
-      </c>
-      <c r="AD38">
-        <v>1.05599</v>
-      </c>
-      <c r="AE38">
-        <v>14.573</v>
-      </c>
-      <c r="AF38">
-        <v>-35.61</v>
-      </c>
-      <c r="AI38">
-        <v>6.1</v>
-      </c>
-      <c r="AJ38">
-        <v>1.6</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E39">
         <v>14</v>
       </c>
@@ -8558,13 +7626,13 @@
         <v>13.8</v>
       </c>
       <c r="I39">
-        <v>1.00492</v>
+        <v>0.99787999999999999</v>
       </c>
       <c r="J39">
-        <v>13.868</v>
+        <v>13.771000000000001</v>
       </c>
       <c r="K39">
-        <v>-23.07</v>
+        <v>-63.79</v>
       </c>
       <c r="N39">
         <v>14.9</v>
@@ -8590,110 +7658,18 @@
       <c r="V39">
         <v>1</v>
       </c>
-      <c r="Z39">
-        <v>13</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB39">
-        <v>1</v>
-      </c>
-      <c r="AC39">
-        <v>13.8</v>
-      </c>
-      <c r="AD39">
-        <v>1.0521199999999999</v>
-      </c>
-      <c r="AE39">
-        <v>14.519</v>
-      </c>
-      <c r="AF39">
-        <v>-35.71</v>
-      </c>
-      <c r="AI39">
-        <v>13.5</v>
-      </c>
-      <c r="AJ39">
-        <v>5.8</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:43" x14ac:dyDescent="0.35">
-      <c r="Z40">
-        <v>14</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB40">
-        <v>1</v>
-      </c>
-      <c r="AC40">
-        <v>13.8</v>
-      </c>
-      <c r="AD40">
-        <v>1.04312</v>
-      </c>
-      <c r="AE40">
-        <v>14.395</v>
-      </c>
-      <c r="AF40">
-        <v>-36.590000000000003</v>
-      </c>
-      <c r="AI40">
-        <v>14.9</v>
-      </c>
-      <c r="AJ40">
-        <v>5</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="5:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E44" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="5:43" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="5:43" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
         <v>65</v>
       </c>
@@ -8728,7 +7704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="5:43" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E47">
         <v>1</v>
       </c>
@@ -8742,7 +7718,7 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>-20.69</v>
+        <v>-61.44</v>
       </c>
       <c r="J47">
         <v>154</v>
@@ -8757,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:43" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E48">
         <v>2</v>
       </c>
@@ -8771,7 +7747,7 @@
         <v>69</v>
       </c>
       <c r="I48">
-        <v>-24.06</v>
+        <v>-64.81</v>
       </c>
       <c r="J48">
         <v>40</v>
@@ -8806,7 +7782,7 @@
         <v>69</v>
       </c>
       <c r="I49">
-        <v>-28.07</v>
+        <v>-68.819999999999993</v>
       </c>
       <c r="J49">
         <v>65</v>
@@ -8841,7 +7817,7 @@
         <v>69</v>
       </c>
       <c r="I50">
-        <v>-28.68</v>
+        <v>-69.430000000000007</v>
       </c>
       <c r="K50">
         <v>47.8</v>
@@ -8873,7 +7849,7 @@
         <v>69</v>
       </c>
       <c r="I51">
-        <v>-27.68</v>
+        <v>-68.430000000000007</v>
       </c>
       <c r="K51">
         <v>7.6</v>
@@ -8905,7 +7881,7 @@
         <v>13.8</v>
       </c>
       <c r="I52">
-        <v>-35.770000000000003</v>
+        <v>-76.52</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -8940,7 +7916,7 @@
         <v>13.8</v>
       </c>
       <c r="I53">
-        <v>-35.19</v>
+        <v>-75.94</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -8972,7 +7948,7 @@
         <v>18</v>
       </c>
       <c r="I54">
-        <v>-35.19</v>
+        <v>-75.94</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -9001,7 +7977,7 @@
         <v>13.8</v>
       </c>
       <c r="I55">
-        <v>-36.51</v>
+        <v>-77.260000000000005</v>
       </c>
       <c r="K55">
         <v>29.5</v>
@@ -9033,7 +8009,7 @@
         <v>13.8</v>
       </c>
       <c r="I56">
-        <v>-36.81</v>
+        <v>-77.56</v>
       </c>
       <c r="K56">
         <v>9</v>
@@ -9065,7 +8041,7 @@
         <v>13.8</v>
       </c>
       <c r="I57">
-        <v>-36.49</v>
+        <v>-77.25</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -9097,7 +8073,7 @@
         <v>13.8</v>
       </c>
       <c r="I58">
-        <v>-36.880000000000003</v>
+        <v>-77.63</v>
       </c>
       <c r="K58">
         <v>6.1</v>
@@ -9129,7 +8105,7 @@
         <v>13.8</v>
       </c>
       <c r="I59">
-        <v>-37.04</v>
+        <v>-77.8</v>
       </c>
       <c r="K59">
         <v>13.5</v>
@@ -9161,7 +8137,7 @@
         <v>13.8</v>
       </c>
       <c r="I60">
-        <v>-38.04</v>
+        <v>-78.8</v>
       </c>
       <c r="K60">
         <v>14.9</v>

--- a/Provvisorio.xlsx
+++ b/Provvisorio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10834079_polimi_it/Documents/Quarto anno/Primo semestre/EPS/Projects/Project 1 - Power Flow Analysis/ProgettoEPS1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\Desktop\UNI\A.A. 2025-2026\ELECTRIC POWER SYSTEM\progetto\ProgettoEPS1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{3CC837FA-ED65-4767-9870-5457D25183E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F9DD23A-24A4-4302-A0E6-87D2D7465010}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20972D-A79D-4283-9D77-17486600C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="118">
   <si>
     <t>Node</t>
   </si>
@@ -394,12 +394,39 @@
   <si>
     <t>FD_50</t>
   </si>
+  <si>
+    <t>NR_1_voltage limit</t>
+  </si>
+  <si>
+    <t>NR_50 voltage limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC voltage limit </t>
+  </si>
+  <si>
+    <t>GS_1 voltage limit</t>
+  </si>
+  <si>
+    <t>GS_50 voltage limit</t>
+  </si>
+  <si>
+    <t>NO CONVERGENZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD_1 voltage limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CONVERGENZA </t>
+  </si>
+  <si>
+    <t>FD_50 voltage limit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,13 +457,26 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -466,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +517,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6548,10 +6590,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F7985-A012-40CC-9F1A-039713B93512}">
-  <dimension ref="E6:AQ134"/>
+  <dimension ref="B6:AQ274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11073,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:39" x14ac:dyDescent="0.35">
       <c r="E129">
         <v>9</v>
       </c>
@@ -11123,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:39" x14ac:dyDescent="0.35">
       <c r="E130">
         <v>10</v>
       </c>
@@ -11170,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:39" x14ac:dyDescent="0.35">
       <c r="E131">
         <v>11</v>
       </c>
@@ -11217,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:39" x14ac:dyDescent="0.35">
       <c r="E132">
         <v>12</v>
       </c>
@@ -11267,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:39" x14ac:dyDescent="0.35">
       <c r="E133">
         <v>13</v>
       </c>
@@ -11314,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:39" x14ac:dyDescent="0.35">
       <c r="E134">
         <v>14</v>
       </c>
@@ -11361,7 +11403,7122 @@
         <v>1</v>
       </c>
     </row>
+    <row r="138" spans="2:39" x14ac:dyDescent="0.35">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+      <c r="U138" s="6"/>
+      <c r="V138" s="6"/>
+      <c r="W138" s="6"/>
+      <c r="X138" s="6"/>
+      <c r="Y138" s="6"/>
+      <c r="Z138" s="6"/>
+      <c r="AA138" s="6"/>
+      <c r="AB138" s="6"/>
+      <c r="AC138" s="6"/>
+      <c r="AD138" s="6"/>
+      <c r="AE138" s="6"/>
+      <c r="AF138" s="6"/>
+      <c r="AG138" s="6"/>
+      <c r="AH138" s="6"/>
+      <c r="AI138" s="6"/>
+      <c r="AJ138" s="6"/>
+      <c r="AK138" s="6"/>
+      <c r="AL138" s="6"/>
+      <c r="AM138" s="6"/>
+    </row>
+    <row r="143" spans="2:39" x14ac:dyDescent="0.35">
+      <c r="E143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="2:39" x14ac:dyDescent="0.35">
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E145" t="s">
+        <v>65</v>
+      </c>
+      <c r="F145" t="s">
+        <v>66</v>
+      </c>
+      <c r="G145" t="s">
+        <v>67</v>
+      </c>
+      <c r="H145" t="s">
+        <v>89</v>
+      </c>
+      <c r="I145" t="s">
+        <v>97</v>
+      </c>
+      <c r="J145" t="s">
+        <v>98</v>
+      </c>
+      <c r="K145" t="s">
+        <v>90</v>
+      </c>
+      <c r="L145" t="s">
+        <v>91</v>
+      </c>
+      <c r="M145" t="s">
+        <v>99</v>
+      </c>
+      <c r="N145" t="s">
+        <v>92</v>
+      </c>
+      <c r="O145" t="s">
+        <v>100</v>
+      </c>
+      <c r="P145" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>101</v>
+      </c>
+      <c r="R145" t="s">
+        <v>102</v>
+      </c>
+      <c r="S145" t="s">
+        <v>94</v>
+      </c>
+      <c r="T145" t="s">
+        <v>103</v>
+      </c>
+      <c r="U145" t="s">
+        <v>95</v>
+      </c>
+      <c r="V145" t="s">
+        <v>96</v>
+      </c>
+      <c r="X145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>84</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>69</v>
+      </c>
+      <c r="I146">
+        <v>1.06</v>
+      </c>
+      <c r="J146">
+        <v>73.14</v>
+      </c>
+      <c r="K146">
+        <v>-20.69</v>
+      </c>
+      <c r="L146">
+        <v>106.21</v>
+      </c>
+      <c r="M146">
+        <v>0.86</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="V146">
+        <v>1</v>
+      </c>
+      <c r="X146" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>75</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>69</v>
+      </c>
+      <c r="I147">
+        <v>1.0456799999999999</v>
+      </c>
+      <c r="J147">
+        <v>72.152000000000001</v>
+      </c>
+      <c r="K147">
+        <v>-22.76</v>
+      </c>
+      <c r="L147">
+        <v>40</v>
+      </c>
+      <c r="M147">
+        <v>6.45</v>
+      </c>
+      <c r="N147">
+        <v>21.7</v>
+      </c>
+      <c r="O147">
+        <v>12.7</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>1</v>
+      </c>
+      <c r="V147">
+        <v>1</v>
+      </c>
+      <c r="X147">
+        <v>1</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z147">
+        <v>1</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>78</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>69</v>
+      </c>
+      <c r="I148">
+        <v>1.0130999999999999</v>
+      </c>
+      <c r="J148">
+        <v>69.903999999999996</v>
+      </c>
+      <c r="K148">
+        <v>-25.17</v>
+      </c>
+      <c r="L148">
+        <v>65</v>
+      </c>
+      <c r="M148">
+        <v>-8.18</v>
+      </c>
+      <c r="N148">
+        <v>94.2</v>
+      </c>
+      <c r="O148">
+        <v>19</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>1</v>
+      </c>
+      <c r="V148">
+        <v>1</v>
+      </c>
+      <c r="X148">
+        <v>2</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z148">
+        <v>1</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB148">
+        <v>11.59</v>
+      </c>
+      <c r="AC148">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AD148">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="149" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>69</v>
+      </c>
+      <c r="I149">
+        <v>1.03887</v>
+      </c>
+      <c r="J149">
+        <v>71.682000000000002</v>
+      </c>
+      <c r="K149">
+        <v>-25.38</v>
+      </c>
+      <c r="N149">
+        <v>47.8</v>
+      </c>
+      <c r="O149">
+        <v>-3.9</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="V149">
+        <v>1</v>
+      </c>
+      <c r="X149">
+        <v>3</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z149">
+        <v>1</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB149">
+        <v>-1.02</v>
+      </c>
+      <c r="AC149">
+        <v>-0.63</v>
+      </c>
+      <c r="AD149">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="150" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>80</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>69</v>
+      </c>
+      <c r="I150">
+        <v>1.03901</v>
+      </c>
+      <c r="J150">
+        <v>71.691999999999993</v>
+      </c>
+      <c r="K150">
+        <v>-24.94</v>
+      </c>
+      <c r="N150">
+        <v>7.6</v>
+      </c>
+      <c r="O150">
+        <v>1.6</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>1</v>
+      </c>
+      <c r="V150">
+        <v>1</v>
+      </c>
+      <c r="X150">
+        <v>4</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z150">
+        <v>1</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB150">
+        <v>-39.22</v>
+      </c>
+      <c r="AC150">
+        <v>8.82</v>
+      </c>
+      <c r="AD150">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>6</v>
+      </c>
+      <c r="F151" t="s">
+        <v>72</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>13.8</v>
+      </c>
+      <c r="I151">
+        <v>1.0841499999999999</v>
+      </c>
+      <c r="J151">
+        <v>14.961</v>
+      </c>
+      <c r="K151">
+        <v>-30.96</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>62.78</v>
+      </c>
+      <c r="N151">
+        <v>11.2</v>
+      </c>
+      <c r="O151">
+        <v>7.5</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>1</v>
+      </c>
+      <c r="V151">
+        <v>1</v>
+      </c>
+      <c r="X151">
+        <v>5</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z151">
+        <v>1</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB151">
+        <v>1.91</v>
+      </c>
+      <c r="AC151">
+        <v>21.53</v>
+      </c>
+      <c r="AD151">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="152" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>74</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>13.8</v>
+      </c>
+      <c r="I152">
+        <v>1.08372</v>
+      </c>
+      <c r="J152">
+        <v>14.955</v>
+      </c>
+      <c r="K152">
+        <v>-30.78</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>1</v>
+      </c>
+      <c r="V152">
+        <v>1</v>
+      </c>
+      <c r="X152">
+        <v>6</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z152">
+        <v>1</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB152">
+        <v>4.57</v>
+      </c>
+      <c r="AC152">
+        <v>-3.05</v>
+      </c>
+      <c r="AD152">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="153" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>81</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>18</v>
+      </c>
+      <c r="I153">
+        <v>1.1066100000000001</v>
+      </c>
+      <c r="J153">
+        <v>19.919</v>
+      </c>
+      <c r="K153">
+        <v>-30.63</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>53.66</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>1</v>
+      </c>
+      <c r="V153">
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z153">
+        <v>1</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB153">
+        <v>11.23</v>
+      </c>
+      <c r="AC153">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="AD153">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>73</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>13.8</v>
+      </c>
+      <c r="I154">
+        <v>1.0732900000000001</v>
+      </c>
+      <c r="J154">
+        <v>14.811</v>
+      </c>
+      <c r="K154">
+        <v>-30.98</v>
+      </c>
+      <c r="N154">
+        <v>29.5</v>
+      </c>
+      <c r="O154">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>21.89</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>1</v>
+      </c>
+      <c r="V154">
+        <v>1</v>
+      </c>
+      <c r="X154">
+        <v>8</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z154">
+        <v>1</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB154">
+        <v>-1.87</v>
+      </c>
+      <c r="AC154">
+        <v>-3.65</v>
+      </c>
+      <c r="AD154">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>13.8</v>
+      </c>
+      <c r="I155">
+        <v>1.06762</v>
+      </c>
+      <c r="J155">
+        <v>14.733000000000001</v>
+      </c>
+      <c r="K155">
+        <v>-31.11</v>
+      </c>
+      <c r="N155">
+        <v>9</v>
+      </c>
+      <c r="O155">
+        <v>5.8</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>1</v>
+      </c>
+      <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="X155">
+        <v>9</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z155">
+        <v>1</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB155">
+        <v>-18.98</v>
+      </c>
+      <c r="AC155">
+        <v>-0.7</v>
+      </c>
+      <c r="AD155">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>83</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>13.8</v>
+      </c>
+      <c r="I156">
+        <v>1.0656399999999999</v>
+      </c>
+      <c r="J156">
+        <v>14.706</v>
+      </c>
+      <c r="K156">
+        <v>-30.77</v>
+      </c>
+      <c r="N156">
+        <v>3.5</v>
+      </c>
+      <c r="O156">
+        <v>1.8</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>1</v>
+      </c>
+      <c r="V156">
+        <v>1</v>
+      </c>
+      <c r="X156">
+        <v>10</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z156">
+        <v>1</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB156">
+        <v>-1.48</v>
+      </c>
+      <c r="AC156">
+        <v>-2.7</v>
+      </c>
+      <c r="AD156">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="157" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157" t="s">
+        <v>77</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>13.8</v>
+      </c>
+      <c r="I157">
+        <v>1.0599099999999999</v>
+      </c>
+      <c r="J157">
+        <v>14.627000000000001</v>
+      </c>
+      <c r="K157">
+        <v>-30.89</v>
+      </c>
+      <c r="N157">
+        <v>6.1</v>
+      </c>
+      <c r="O157">
+        <v>1.6</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>1</v>
+      </c>
+      <c r="V157">
+        <v>1</v>
+      </c>
+      <c r="X157">
+        <v>11</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z157">
+        <v>1</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB157">
+        <v>-3.8</v>
+      </c>
+      <c r="AC157">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="AD157">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="158" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>79</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>13.8</v>
+      </c>
+      <c r="I158">
+        <v>1.05758</v>
+      </c>
+      <c r="J158">
+        <v>14.595000000000001</v>
+      </c>
+      <c r="K158">
+        <v>-31.01</v>
+      </c>
+      <c r="N158">
+        <v>13.5</v>
+      </c>
+      <c r="O158">
+        <v>5.8</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>1</v>
+      </c>
+      <c r="V158">
+        <v>1</v>
+      </c>
+      <c r="X158">
+        <v>12</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z158">
+        <v>1</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB158">
+        <v>-3.73</v>
+      </c>
+      <c r="AC158">
+        <v>6.78</v>
+      </c>
+      <c r="AD158">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="159" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>14</v>
+      </c>
+      <c r="F159" t="s">
+        <v>82</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>13.8</v>
+      </c>
+      <c r="I159">
+        <v>1.0560700000000001</v>
+      </c>
+      <c r="J159">
+        <v>14.574</v>
+      </c>
+      <c r="K159">
+        <v>-31.85</v>
+      </c>
+      <c r="N159">
+        <v>14.9</v>
+      </c>
+      <c r="O159">
+        <v>5</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>1</v>
+      </c>
+      <c r="V159">
+        <v>1</v>
+      </c>
+      <c r="X159">
+        <v>13</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z159">
+        <v>1</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB159">
+        <v>-6.98</v>
+      </c>
+      <c r="AC159">
+        <v>12.46</v>
+      </c>
+      <c r="AD159">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="160" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="X160">
+        <v>14</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB160">
+        <v>-3.19</v>
+      </c>
+      <c r="AC160">
+        <v>-3.48</v>
+      </c>
+      <c r="AD160">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="162" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E162" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="X163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E164" t="s">
+        <v>65</v>
+      </c>
+      <c r="F164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G164" t="s">
+        <v>67</v>
+      </c>
+      <c r="H164" t="s">
+        <v>89</v>
+      </c>
+      <c r="I164" t="s">
+        <v>97</v>
+      </c>
+      <c r="J164" t="s">
+        <v>98</v>
+      </c>
+      <c r="K164" t="s">
+        <v>90</v>
+      </c>
+      <c r="L164" t="s">
+        <v>91</v>
+      </c>
+      <c r="M164" t="s">
+        <v>99</v>
+      </c>
+      <c r="N164" t="s">
+        <v>92</v>
+      </c>
+      <c r="O164" t="s">
+        <v>100</v>
+      </c>
+      <c r="P164" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>101</v>
+      </c>
+      <c r="R164" t="s">
+        <v>102</v>
+      </c>
+      <c r="S164" t="s">
+        <v>94</v>
+      </c>
+      <c r="T164" t="s">
+        <v>103</v>
+      </c>
+      <c r="U164" t="s">
+        <v>95</v>
+      </c>
+      <c r="V164" t="s">
+        <v>96</v>
+      </c>
+      <c r="X164" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>84</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>69</v>
+      </c>
+      <c r="I165">
+        <v>1.06</v>
+      </c>
+      <c r="J165">
+        <v>73.14</v>
+      </c>
+      <c r="K165">
+        <v>-20.69</v>
+      </c>
+      <c r="L165">
+        <v>160.78</v>
+      </c>
+      <c r="M165">
+        <v>-10.050000000000001</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="X165">
+        <v>1</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z165">
+        <v>1</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+      <c r="AC165">
+        <v>0</v>
+      </c>
+      <c r="AD165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>75</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>69</v>
+      </c>
+      <c r="I166">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J166">
+        <v>72.105000000000004</v>
+      </c>
+      <c r="K166">
+        <v>-23.87</v>
+      </c>
+      <c r="L166">
+        <v>40</v>
+      </c>
+      <c r="M166">
+        <v>5.56</v>
+      </c>
+      <c r="N166">
+        <v>21.7</v>
+      </c>
+      <c r="O166">
+        <v>12.7</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>1</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+      <c r="X166">
+        <v>2</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z166">
+        <v>1</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167" t="s">
+        <v>78</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>69</v>
+      </c>
+      <c r="I167">
+        <v>1.0183899999999999</v>
+      </c>
+      <c r="J167">
+        <v>70.269000000000005</v>
+      </c>
+      <c r="K167">
+        <v>-27.48</v>
+      </c>
+      <c r="L167">
+        <v>65</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>94.2</v>
+      </c>
+      <c r="O167">
+        <v>19</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>1</v>
+      </c>
+      <c r="V167">
+        <v>1</v>
+      </c>
+      <c r="X167">
+        <v>3</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z167">
+        <v>1</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+      <c r="AD167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>71</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>69</v>
+      </c>
+      <c r="I168">
+        <v>1.0344800000000001</v>
+      </c>
+      <c r="J168">
+        <v>71.379000000000005</v>
+      </c>
+      <c r="K168">
+        <v>-28.44</v>
+      </c>
+      <c r="N168">
+        <v>47.8</v>
+      </c>
+      <c r="O168">
+        <v>-3.9</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>1</v>
+      </c>
+      <c r="V168">
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <v>4</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z168">
+        <v>1</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169" t="s">
+        <v>80</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>69</v>
+      </c>
+      <c r="I169">
+        <v>1.03861</v>
+      </c>
+      <c r="J169">
+        <v>71.664000000000001</v>
+      </c>
+      <c r="K169">
+        <v>-27.48</v>
+      </c>
+      <c r="N169">
+        <v>7.6</v>
+      </c>
+      <c r="O169">
+        <v>1.6</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>1</v>
+      </c>
+      <c r="V169">
+        <v>1</v>
+      </c>
+      <c r="X169">
+        <v>5</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z169">
+        <v>1</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>72</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>13.8</v>
+      </c>
+      <c r="I170">
+        <v>1.07</v>
+      </c>
+      <c r="J170">
+        <v>14.766</v>
+      </c>
+      <c r="K170">
+        <v>-35.1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>35.54</v>
+      </c>
+      <c r="N170">
+        <v>11.2</v>
+      </c>
+      <c r="O170">
+        <v>7.5</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>1</v>
+      </c>
+      <c r="V170">
+        <v>1</v>
+      </c>
+      <c r="X170">
+        <v>6</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <v>7</v>
+      </c>
+      <c r="F171" t="s">
+        <v>74</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>13.8</v>
+      </c>
+      <c r="I171">
+        <v>1.0693900000000001</v>
+      </c>
+      <c r="J171">
+        <v>14.757999999999999</v>
+      </c>
+      <c r="K171">
+        <v>-34.619999999999997</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>1</v>
+      </c>
+      <c r="V171">
+        <v>1</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z171">
+        <v>1</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+      <c r="AC171">
+        <v>0</v>
+      </c>
+      <c r="AD171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <v>8</v>
+      </c>
+      <c r="F172" t="s">
+        <v>81</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>18</v>
+      </c>
+      <c r="I172">
+        <v>1.06087</v>
+      </c>
+      <c r="J172">
+        <v>19.096</v>
+      </c>
+      <c r="K172">
+        <v>-34.619999999999997</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>30</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>1</v>
+      </c>
+      <c r="V172">
+        <v>1</v>
+      </c>
+      <c r="X172">
+        <v>8</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z172">
+        <v>1</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+      <c r="AC172">
+        <v>0</v>
+      </c>
+      <c r="AD172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <v>9</v>
+      </c>
+      <c r="F173" t="s">
+        <v>73</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>13.8</v>
+      </c>
+      <c r="I173">
+        <v>1.0587899999999999</v>
+      </c>
+      <c r="J173">
+        <v>14.611000000000001</v>
+      </c>
+      <c r="K173">
+        <v>-35.729999999999997</v>
+      </c>
+      <c r="N173">
+        <v>29.5</v>
+      </c>
+      <c r="O173">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>21.3</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="V173">
+        <v>1</v>
+      </c>
+      <c r="X173">
+        <v>9</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z173">
+        <v>1</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>0</v>
+      </c>
+      <c r="AD173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
+        <v>76</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>13.8</v>
+      </c>
+      <c r="I174">
+        <v>1.05338</v>
+      </c>
+      <c r="J174">
+        <v>14.537000000000001</v>
+      </c>
+      <c r="K174">
+        <v>-35.909999999999997</v>
+      </c>
+      <c r="N174">
+        <v>9</v>
+      </c>
+      <c r="O174">
+        <v>5.8</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>1</v>
+      </c>
+      <c r="V174">
+        <v>1</v>
+      </c>
+      <c r="X174">
+        <v>10</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z174">
+        <v>1</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <v>0</v>
+      </c>
+      <c r="AD174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <v>11</v>
+      </c>
+      <c r="F175" t="s">
+        <v>83</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>13.8</v>
+      </c>
+      <c r="I175">
+        <v>1.05816</v>
+      </c>
+      <c r="J175">
+        <v>14.603</v>
+      </c>
+      <c r="K175">
+        <v>-35.630000000000003</v>
+      </c>
+      <c r="N175">
+        <v>3.5</v>
+      </c>
+      <c r="O175">
+        <v>1.8</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
+      <c r="X175">
+        <v>11</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z175">
+        <v>1</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>0</v>
+      </c>
+      <c r="AD175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <v>12</v>
+      </c>
+      <c r="F176" t="s">
+        <v>77</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>13.8</v>
+      </c>
+      <c r="I176">
+        <v>1.0553900000000001</v>
+      </c>
+      <c r="J176">
+        <v>14.564</v>
+      </c>
+      <c r="K176">
+        <v>-35.950000000000003</v>
+      </c>
+      <c r="N176">
+        <v>6.1</v>
+      </c>
+      <c r="O176">
+        <v>1.6</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>1</v>
+      </c>
+      <c r="V176">
+        <v>1</v>
+      </c>
+      <c r="X176">
+        <v>12</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z176">
+        <v>1</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+      <c r="AC176">
+        <v>0</v>
+      </c>
+      <c r="AD176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>79</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>13.8</v>
+      </c>
+      <c r="I177">
+        <v>1.0508299999999999</v>
+      </c>
+      <c r="J177">
+        <v>14.500999999999999</v>
+      </c>
+      <c r="K177">
+        <v>-36.020000000000003</v>
+      </c>
+      <c r="N177">
+        <v>13.5</v>
+      </c>
+      <c r="O177">
+        <v>5.8</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>1</v>
+      </c>
+      <c r="V177">
+        <v>1</v>
+      </c>
+      <c r="X177">
+        <v>13</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z177">
+        <v>1</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s">
+        <v>82</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>13.8</v>
+      </c>
+      <c r="I178">
+        <v>1.0373699999999999</v>
+      </c>
+      <c r="J178">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="K178">
+        <v>-36.86</v>
+      </c>
+      <c r="N178">
+        <v>14.9</v>
+      </c>
+      <c r="O178">
+        <v>5</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>1</v>
+      </c>
+      <c r="V178">
+        <v>1</v>
+      </c>
+      <c r="X178">
+        <v>14</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z178">
+        <v>1</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E182" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E184" t="s">
+        <v>65</v>
+      </c>
+      <c r="F184" t="s">
+        <v>66</v>
+      </c>
+      <c r="G184" t="s">
+        <v>67</v>
+      </c>
+      <c r="H184" t="s">
+        <v>89</v>
+      </c>
+      <c r="I184" t="s">
+        <v>90</v>
+      </c>
+      <c r="J184" t="s">
+        <v>91</v>
+      </c>
+      <c r="K184" t="s">
+        <v>92</v>
+      </c>
+      <c r="L184" t="s">
+        <v>93</v>
+      </c>
+      <c r="M184" t="s">
+        <v>94</v>
+      </c>
+      <c r="N184" t="s">
+        <v>95</v>
+      </c>
+      <c r="O184" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>65</v>
+      </c>
+      <c r="R184" t="s">
+        <v>66</v>
+      </c>
+      <c r="S184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T184" t="s">
+        <v>1</v>
+      </c>
+      <c r="U184" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>84</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>69</v>
+      </c>
+      <c r="I185">
+        <v>-20.69</v>
+      </c>
+      <c r="J185">
+        <v>154</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="R185" t="s">
+        <v>84</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+      <c r="T185" t="s">
+        <v>85</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186" t="s">
+        <v>75</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>69</v>
+      </c>
+      <c r="I186">
+        <v>-24.06</v>
+      </c>
+      <c r="J186">
+        <v>40</v>
+      </c>
+      <c r="K186">
+        <v>21.7</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>2</v>
+      </c>
+      <c r="R186" t="s">
+        <v>75</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+      <c r="T186" t="s">
+        <v>9</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187" t="s">
+        <v>78</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>69</v>
+      </c>
+      <c r="I187">
+        <v>-28.07</v>
+      </c>
+      <c r="J187">
+        <v>65</v>
+      </c>
+      <c r="K187">
+        <v>94.2</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>3</v>
+      </c>
+      <c r="R187" t="s">
+        <v>78</v>
+      </c>
+      <c r="S187">
+        <v>1</v>
+      </c>
+      <c r="T187" t="s">
+        <v>9</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <v>4</v>
+      </c>
+      <c r="F188" t="s">
+        <v>71</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>69</v>
+      </c>
+      <c r="I188">
+        <v>-28.68</v>
+      </c>
+      <c r="K188">
+        <v>47.8</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>4</v>
+      </c>
+      <c r="R188" t="s">
+        <v>71</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="T188" t="s">
+        <v>11</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189" t="s">
+        <v>80</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>69</v>
+      </c>
+      <c r="I189">
+        <v>-27.68</v>
+      </c>
+      <c r="K189">
+        <v>7.6</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189" t="s">
+        <v>80</v>
+      </c>
+      <c r="S189">
+        <v>1</v>
+      </c>
+      <c r="T189" t="s">
+        <v>11</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E190">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>72</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>13.8</v>
+      </c>
+      <c r="I190">
+        <v>-35.770000000000003</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>11.2</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>6</v>
+      </c>
+      <c r="R190" t="s">
+        <v>72</v>
+      </c>
+      <c r="S190">
+        <v>1</v>
+      </c>
+      <c r="T190" t="s">
+        <v>9</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <v>7</v>
+      </c>
+      <c r="F191" t="s">
+        <v>74</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>13.8</v>
+      </c>
+      <c r="I191">
+        <v>-35.19</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>7</v>
+      </c>
+      <c r="R191" t="s">
+        <v>74</v>
+      </c>
+      <c r="S191">
+        <v>1</v>
+      </c>
+      <c r="T191" t="s">
+        <v>11</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <v>8</v>
+      </c>
+      <c r="F192" t="s">
+        <v>81</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>18</v>
+      </c>
+      <c r="I192">
+        <v>-35.19</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="Q192">
+        <v>8</v>
+      </c>
+      <c r="R192" t="s">
+        <v>81</v>
+      </c>
+      <c r="S192">
+        <v>1</v>
+      </c>
+      <c r="T192" t="s">
+        <v>9</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>73</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>13.8</v>
+      </c>
+      <c r="I193">
+        <v>-36.51</v>
+      </c>
+      <c r="K193">
+        <v>29.5</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193" t="s">
+        <v>73</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+      <c r="T193" t="s">
+        <v>11</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>76</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>13.8</v>
+      </c>
+      <c r="I194">
+        <v>-36.81</v>
+      </c>
+      <c r="K194">
+        <v>9</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>10</v>
+      </c>
+      <c r="R194" t="s">
+        <v>76</v>
+      </c>
+      <c r="S194">
+        <v>1</v>
+      </c>
+      <c r="T194" t="s">
+        <v>11</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <v>11</v>
+      </c>
+      <c r="F195" t="s">
+        <v>83</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>13.8</v>
+      </c>
+      <c r="I195">
+        <v>-36.49</v>
+      </c>
+      <c r="K195">
+        <v>3.5</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="Q195">
+        <v>11</v>
+      </c>
+      <c r="R195" t="s">
+        <v>83</v>
+      </c>
+      <c r="S195">
+        <v>1</v>
+      </c>
+      <c r="T195" t="s">
+        <v>11</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>77</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>13.8</v>
+      </c>
+      <c r="I196">
+        <v>-36.880000000000003</v>
+      </c>
+      <c r="K196">
+        <v>6.1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="Q196">
+        <v>12</v>
+      </c>
+      <c r="R196" t="s">
+        <v>77</v>
+      </c>
+      <c r="S196">
+        <v>1</v>
+      </c>
+      <c r="T196" t="s">
+        <v>11</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>79</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>13.8</v>
+      </c>
+      <c r="I197">
+        <v>-37.04</v>
+      </c>
+      <c r="K197">
+        <v>13.5</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="Q197">
+        <v>13</v>
+      </c>
+      <c r="R197" t="s">
+        <v>79</v>
+      </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="T197" t="s">
+        <v>11</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s">
+        <v>82</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>13.8</v>
+      </c>
+      <c r="I198">
+        <v>-38.04</v>
+      </c>
+      <c r="K198">
+        <v>14.9</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="Q198">
+        <v>14</v>
+      </c>
+      <c r="R198" t="s">
+        <v>82</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+      <c r="T198" t="s">
+        <v>11</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E202" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="X203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E204" t="s">
+        <v>65</v>
+      </c>
+      <c r="F204" t="s">
+        <v>66</v>
+      </c>
+      <c r="G204" t="s">
+        <v>67</v>
+      </c>
+      <c r="H204" t="s">
+        <v>89</v>
+      </c>
+      <c r="I204" t="s">
+        <v>97</v>
+      </c>
+      <c r="J204" t="s">
+        <v>98</v>
+      </c>
+      <c r="K204" t="s">
+        <v>90</v>
+      </c>
+      <c r="L204" t="s">
+        <v>91</v>
+      </c>
+      <c r="M204" t="s">
+        <v>99</v>
+      </c>
+      <c r="N204" t="s">
+        <v>92</v>
+      </c>
+      <c r="O204" t="s">
+        <v>100</v>
+      </c>
+      <c r="P204" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>101</v>
+      </c>
+      <c r="R204" t="s">
+        <v>102</v>
+      </c>
+      <c r="S204" t="s">
+        <v>94</v>
+      </c>
+      <c r="T204" t="s">
+        <v>103</v>
+      </c>
+      <c r="U204" t="s">
+        <v>95</v>
+      </c>
+      <c r="V204" t="s">
+        <v>96</v>
+      </c>
+      <c r="X204" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>84</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>69</v>
+      </c>
+      <c r="I205">
+        <v>1.06</v>
+      </c>
+      <c r="J205">
+        <v>73.14</v>
+      </c>
+      <c r="K205">
+        <v>-20.69</v>
+      </c>
+      <c r="L205">
+        <v>-5.74</v>
+      </c>
+      <c r="M205">
+        <v>38.69</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>1</v>
+      </c>
+      <c r="V205">
+        <v>1</v>
+      </c>
+      <c r="X205">
+        <v>1</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z205">
+        <v>1</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206" t="s">
+        <v>75</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>69</v>
+      </c>
+      <c r="I206">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J206">
+        <v>72.105000000000004</v>
+      </c>
+      <c r="K206">
+        <v>-20.13</v>
+      </c>
+      <c r="L206">
+        <v>40</v>
+      </c>
+      <c r="M206">
+        <v>15.92</v>
+      </c>
+      <c r="N206">
+        <v>21.7</v>
+      </c>
+      <c r="O206">
+        <v>12.7</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>1</v>
+      </c>
+      <c r="V206">
+        <v>1</v>
+      </c>
+      <c r="X206">
+        <v>2</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z206">
+        <v>1</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB206">
+        <v>-19.66</v>
+      </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
+      <c r="AD206">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="207" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207" t="s">
+        <v>78</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>69</v>
+      </c>
+      <c r="I207">
+        <v>1.01</v>
+      </c>
+      <c r="J207">
+        <v>69.69</v>
+      </c>
+      <c r="K207">
+        <v>-20.92</v>
+      </c>
+      <c r="L207">
+        <v>65</v>
+      </c>
+      <c r="M207">
+        <v>2.65</v>
+      </c>
+      <c r="N207">
+        <v>94.2</v>
+      </c>
+      <c r="O207">
+        <v>19</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>1</v>
+      </c>
+      <c r="V207">
+        <v>1</v>
+      </c>
+      <c r="X207">
+        <v>3</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z207">
+        <v>1</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB207">
+        <v>-14.84</v>
+      </c>
+      <c r="AC207">
+        <v>0</v>
+      </c>
+      <c r="AD207">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="208" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <v>4</v>
+      </c>
+      <c r="F208" t="s">
+        <v>71</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>69</v>
+      </c>
+      <c r="I208">
+        <v>1.0093099999999999</v>
+      </c>
+      <c r="J208">
+        <v>69.643000000000001</v>
+      </c>
+      <c r="K208">
+        <v>-20.54</v>
+      </c>
+      <c r="N208">
+        <v>47.8</v>
+      </c>
+      <c r="O208">
+        <v>-3.9</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>1</v>
+      </c>
+      <c r="V208">
+        <v>1</v>
+      </c>
+      <c r="X208">
+        <v>4</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z208">
+        <v>1</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB208">
+        <v>-9.91</v>
+      </c>
+      <c r="AC208">
+        <v>83.39</v>
+      </c>
+      <c r="AD208">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="209" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="F209" t="s">
+        <v>80</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>69</v>
+      </c>
+      <c r="I209">
+        <v>1.0277499999999999</v>
+      </c>
+      <c r="J209">
+        <v>70.914000000000001</v>
+      </c>
+      <c r="K209">
+        <v>-20.61</v>
+      </c>
+      <c r="N209">
+        <v>7.6</v>
+      </c>
+      <c r="O209">
+        <v>1.6</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>1</v>
+      </c>
+      <c r="V209">
+        <v>1</v>
+      </c>
+      <c r="X209">
+        <v>5</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z209">
+        <v>1</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB209">
+        <v>-2.23</v>
+      </c>
+      <c r="AC209">
+        <v>0.03</v>
+      </c>
+      <c r="AD209">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="210" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>72</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>13.8</v>
+      </c>
+      <c r="I210">
+        <v>1.07</v>
+      </c>
+      <c r="J210">
+        <v>14.766</v>
+      </c>
+      <c r="K210">
+        <v>-21.98</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>77.33</v>
+      </c>
+      <c r="N210">
+        <v>11.2</v>
+      </c>
+      <c r="O210">
+        <v>7.5</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>1</v>
+      </c>
+      <c r="V210">
+        <v>1</v>
+      </c>
+      <c r="X210">
+        <v>6</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z210">
+        <v>1</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB210">
+        <v>-45.09</v>
+      </c>
+      <c r="AC210">
+        <v>0</v>
+      </c>
+      <c r="AD210">
+        <v>45.09</v>
+      </c>
+    </row>
+    <row r="211" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E211">
+        <v>7</v>
+      </c>
+      <c r="F211" t="s">
+        <v>74</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>13.8</v>
+      </c>
+      <c r="I211">
+        <v>1.0446500000000001</v>
+      </c>
+      <c r="J211">
+        <v>14.416</v>
+      </c>
+      <c r="K211">
+        <v>-21.6</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>1</v>
+      </c>
+      <c r="V211">
+        <v>1</v>
+      </c>
+      <c r="X211">
+        <v>7</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z211">
+        <v>1</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB211">
+        <v>-30.08</v>
+      </c>
+      <c r="AC211">
+        <v>13.4</v>
+      </c>
+      <c r="AD211">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="212" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <v>8</v>
+      </c>
+      <c r="F212" t="s">
+        <v>81</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>18</v>
+      </c>
+      <c r="I212">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J212">
+        <v>19.62</v>
+      </c>
+      <c r="K212">
+        <v>-21.56</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>66.91</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>1</v>
+      </c>
+      <c r="V212">
+        <v>1</v>
+      </c>
+      <c r="X212">
+        <v>8</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z212">
+        <v>1</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB212">
+        <v>-0.46</v>
+      </c>
+      <c r="AC212">
+        <v>0</v>
+      </c>
+      <c r="AD212">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="213" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <v>9</v>
+      </c>
+      <c r="F213" t="s">
+        <v>73</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>13.8</v>
+      </c>
+      <c r="I213">
+        <v>1.0139</v>
+      </c>
+      <c r="J213">
+        <v>13.992000000000001</v>
+      </c>
+      <c r="K213">
+        <v>-21.88</v>
+      </c>
+      <c r="N213">
+        <v>29.5</v>
+      </c>
+      <c r="O213">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>19.53</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>1</v>
+      </c>
+      <c r="V213">
+        <v>1</v>
+      </c>
+      <c r="X213">
+        <v>9</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z213">
+        <v>1</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB213">
+        <v>-29.89</v>
+      </c>
+      <c r="AC213">
+        <v>19.3</v>
+      </c>
+      <c r="AD213">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="214" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>76</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>13.8</v>
+      </c>
+      <c r="I214">
+        <v>1.0040100000000001</v>
+      </c>
+      <c r="J214">
+        <v>13.855</v>
+      </c>
+      <c r="K214">
+        <v>-21.75</v>
+      </c>
+      <c r="N214">
+        <v>9</v>
+      </c>
+      <c r="O214">
+        <v>5.8</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>1</v>
+      </c>
+      <c r="V214">
+        <v>1</v>
+      </c>
+      <c r="X214">
+        <v>10</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z214">
+        <v>1</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB214">
+        <v>-3.68</v>
+      </c>
+      <c r="AC214">
+        <v>18.89</v>
+      </c>
+      <c r="AD214">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E215">
+        <v>11</v>
+      </c>
+      <c r="F215" t="s">
+        <v>83</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>13.8</v>
+      </c>
+      <c r="I215">
+        <v>1.0329600000000001</v>
+      </c>
+      <c r="J215">
+        <v>14.255000000000001</v>
+      </c>
+      <c r="K215">
+        <v>-21.97</v>
+      </c>
+      <c r="N215">
+        <v>3.5</v>
+      </c>
+      <c r="O215">
+        <v>1.8</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>1</v>
+      </c>
+      <c r="V215">
+        <v>1</v>
+      </c>
+      <c r="X215">
+        <v>11</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z215">
+        <v>1</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E216">
+        <v>12</v>
+      </c>
+      <c r="F216" t="s">
+        <v>77</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>13.8</v>
+      </c>
+      <c r="I216">
+        <v>1.0264500000000001</v>
+      </c>
+      <c r="J216">
+        <v>14.164999999999999</v>
+      </c>
+      <c r="K216">
+        <v>-22.07</v>
+      </c>
+      <c r="N216">
+        <v>6.1</v>
+      </c>
+      <c r="O216">
+        <v>1.6</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>1</v>
+      </c>
+      <c r="V216">
+        <v>1</v>
+      </c>
+      <c r="X216">
+        <v>12</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z216">
+        <v>1</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB216">
+        <v>3.16</v>
+      </c>
+      <c r="AC216">
+        <v>15.07</v>
+      </c>
+      <c r="AD216">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="217" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E217">
+        <v>13</v>
+      </c>
+      <c r="F217" t="s">
+        <v>79</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>13.8</v>
+      </c>
+      <c r="I217">
+        <v>1.0358700000000001</v>
+      </c>
+      <c r="J217">
+        <v>14.295</v>
+      </c>
+      <c r="K217">
+        <v>-22.19</v>
+      </c>
+      <c r="N217">
+        <v>13.5</v>
+      </c>
+      <c r="O217">
+        <v>5.8</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>1</v>
+      </c>
+      <c r="V217">
+        <v>1</v>
+      </c>
+      <c r="X217">
+        <v>13</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z217">
+        <v>1</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB217">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="AC217">
+        <v>6.14</v>
+      </c>
+      <c r="AD217">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="218" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E218">
+        <v>14</v>
+      </c>
+      <c r="F218" t="s">
+        <v>82</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>13.8</v>
+      </c>
+      <c r="I218">
+        <v>1.00492</v>
+      </c>
+      <c r="J218">
+        <v>13.868</v>
+      </c>
+      <c r="K218">
+        <v>-23.07</v>
+      </c>
+      <c r="N218">
+        <v>14.9</v>
+      </c>
+      <c r="O218">
+        <v>5</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>1</v>
+      </c>
+      <c r="V218">
+        <v>1</v>
+      </c>
+      <c r="X218">
+        <v>14</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z218">
+        <v>1</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB218">
+        <v>-0.01</v>
+      </c>
+      <c r="AC218">
+        <v>0.01</v>
+      </c>
+      <c r="AD218">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="221" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E221" t="s">
+        <v>113</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="222" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="X222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F223" t="s">
+        <v>66</v>
+      </c>
+      <c r="G223" t="s">
+        <v>67</v>
+      </c>
+      <c r="H223" t="s">
+        <v>89</v>
+      </c>
+      <c r="I223" t="s">
+        <v>97</v>
+      </c>
+      <c r="J223" t="s">
+        <v>98</v>
+      </c>
+      <c r="K223" t="s">
+        <v>90</v>
+      </c>
+      <c r="L223" t="s">
+        <v>91</v>
+      </c>
+      <c r="M223" t="s">
+        <v>99</v>
+      </c>
+      <c r="N223" t="s">
+        <v>92</v>
+      </c>
+      <c r="O223" t="s">
+        <v>100</v>
+      </c>
+      <c r="P223" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>101</v>
+      </c>
+      <c r="R223" t="s">
+        <v>102</v>
+      </c>
+      <c r="S223" t="s">
+        <v>94</v>
+      </c>
+      <c r="T223" t="s">
+        <v>103</v>
+      </c>
+      <c r="U223" t="s">
+        <v>95</v>
+      </c>
+      <c r="V223" t="s">
+        <v>96</v>
+      </c>
+      <c r="X223" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>84</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>69</v>
+      </c>
+      <c r="I224">
+        <v>1.06</v>
+      </c>
+      <c r="J224">
+        <v>73.14</v>
+      </c>
+      <c r="K224">
+        <v>-20.69</v>
+      </c>
+      <c r="L224">
+        <v>158.68</v>
+      </c>
+      <c r="M224">
+        <v>-10.23</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225" t="s">
+        <v>75</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>69</v>
+      </c>
+      <c r="I225">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J225">
+        <v>72.105000000000004</v>
+      </c>
+      <c r="K225">
+        <v>-23.83</v>
+      </c>
+      <c r="L225">
+        <v>40</v>
+      </c>
+      <c r="M225">
+        <v>7.89</v>
+      </c>
+      <c r="N225">
+        <v>21.7</v>
+      </c>
+      <c r="O225">
+        <v>12.7</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>2</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB225">
+        <v>-0.51</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="226" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226" t="s">
+        <v>78</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>69</v>
+      </c>
+      <c r="I226">
+        <v>1.01</v>
+      </c>
+      <c r="J226">
+        <v>69.69</v>
+      </c>
+      <c r="K226">
+        <v>-27.42</v>
+      </c>
+      <c r="L226">
+        <v>65</v>
+      </c>
+      <c r="M226">
+        <v>-9.06</v>
+      </c>
+      <c r="N226">
+        <v>94.2</v>
+      </c>
+      <c r="O226">
+        <v>19</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>3</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB226">
+        <v>2.71</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="227" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E227">
+        <v>4</v>
+      </c>
+      <c r="F227" t="s">
+        <v>71</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>69</v>
+      </c>
+      <c r="I227">
+        <v>1.0362199999999999</v>
+      </c>
+      <c r="J227">
+        <v>71.498999999999995</v>
+      </c>
+      <c r="K227">
+        <v>-28.37</v>
+      </c>
+      <c r="N227">
+        <v>47.8</v>
+      </c>
+      <c r="O227">
+        <v>-3.9</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>4</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
+        <v>0.08</v>
+      </c>
+      <c r="AD227">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="228" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228" t="s">
+        <v>80</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>69</v>
+      </c>
+      <c r="I228">
+        <v>1.0399400000000001</v>
+      </c>
+      <c r="J228">
+        <v>71.756</v>
+      </c>
+      <c r="K228">
+        <v>-27.38</v>
+      </c>
+      <c r="N228">
+        <v>7.6</v>
+      </c>
+      <c r="O228">
+        <v>1.6</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>5</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB228">
+        <v>-0.21</v>
+      </c>
+      <c r="AC228">
+        <v>-0.02</v>
+      </c>
+      <c r="AD228">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="229" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E229">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>72</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>13.8</v>
+      </c>
+      <c r="I229">
+        <v>1.07</v>
+      </c>
+      <c r="J229">
+        <v>14.766</v>
+      </c>
+      <c r="K229">
+        <v>-34.76</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>31.89</v>
+      </c>
+      <c r="N229">
+        <v>11.2</v>
+      </c>
+      <c r="O229">
+        <v>7.5</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>6</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB229">
+        <v>-0.91</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="230" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E230">
+        <v>7</v>
+      </c>
+      <c r="F230" t="s">
+        <v>74</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>13.8</v>
+      </c>
+      <c r="I230">
+        <v>1.0829299999999999</v>
+      </c>
+      <c r="J230">
+        <v>14.944000000000001</v>
+      </c>
+      <c r="K230">
+        <v>-34.409999999999997</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>7</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB230">
+        <v>-0.87</v>
+      </c>
+      <c r="AC230">
+        <v>-0.01</v>
+      </c>
+      <c r="AD230">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="231" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E231">
+        <v>8</v>
+      </c>
+      <c r="F231" t="s">
+        <v>81</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>18</v>
+      </c>
+      <c r="I231">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J231">
+        <v>19.62</v>
+      </c>
+      <c r="K231">
+        <v>-34.409999999999997</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>41.97</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>8</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB231">
+        <v>-0.01</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="232" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E232">
+        <v>9</v>
+      </c>
+      <c r="F232" t="s">
+        <v>73</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>13.8</v>
+      </c>
+      <c r="I232">
+        <v>1.0678000000000001</v>
+      </c>
+      <c r="J232">
+        <v>14.736000000000001</v>
+      </c>
+      <c r="K232">
+        <v>-35.5</v>
+      </c>
+      <c r="N232">
+        <v>29.5</v>
+      </c>
+      <c r="O232">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>21.66</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>9</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB232">
+        <v>-0.78</v>
+      </c>
+      <c r="AC232">
+        <v>0.3</v>
+      </c>
+      <c r="AD232">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="233" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E233">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>76</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>13.8</v>
+      </c>
+      <c r="I233">
+        <v>1.06084</v>
+      </c>
+      <c r="J233">
+        <v>14.64</v>
+      </c>
+      <c r="K233">
+        <v>-35.64</v>
+      </c>
+      <c r="N233">
+        <v>9</v>
+      </c>
+      <c r="O233">
+        <v>5.8</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>10</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB233">
+        <v>-0.25</v>
+      </c>
+      <c r="AC233">
+        <v>0.11</v>
+      </c>
+      <c r="AD233">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="234" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E234">
+        <v>11</v>
+      </c>
+      <c r="F234" t="s">
+        <v>83</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>13.8</v>
+      </c>
+      <c r="I234">
+        <v>1.0619799999999999</v>
+      </c>
+      <c r="J234">
+        <v>14.654999999999999</v>
+      </c>
+      <c r="K234">
+        <v>-35.340000000000003</v>
+      </c>
+      <c r="N234">
+        <v>3.5</v>
+      </c>
+      <c r="O234">
+        <v>1.8</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>1</v>
+      </c>
+      <c r="V234">
+        <v>1</v>
+      </c>
+      <c r="X234">
+        <v>11</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z234">
+        <v>1</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB234">
+        <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E235">
+        <v>12</v>
+      </c>
+      <c r="F235" t="s">
+        <v>77</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>13.8</v>
+      </c>
+      <c r="I235">
+        <v>1.0559799999999999</v>
+      </c>
+      <c r="J235">
+        <v>14.573</v>
+      </c>
+      <c r="K235">
+        <v>-35.58</v>
+      </c>
+      <c r="N235">
+        <v>6.1</v>
+      </c>
+      <c r="O235">
+        <v>1.6</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>1</v>
+      </c>
+      <c r="V235">
+        <v>1</v>
+      </c>
+      <c r="X235">
+        <v>12</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z235">
+        <v>1</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB235">
+        <v>-0.13</v>
+      </c>
+      <c r="AC235">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD235">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="236" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E236">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s">
+        <v>79</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>13.8</v>
+      </c>
+      <c r="I236">
+        <v>1.0521199999999999</v>
+      </c>
+      <c r="J236">
+        <v>14.519</v>
+      </c>
+      <c r="K236">
+        <v>-35.68</v>
+      </c>
+      <c r="N236">
+        <v>13.5</v>
+      </c>
+      <c r="O236">
+        <v>5.8</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>1</v>
+      </c>
+      <c r="V236">
+        <v>1</v>
+      </c>
+      <c r="X236">
+        <v>13</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z236">
+        <v>1</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB236">
+        <v>-0.13</v>
+      </c>
+      <c r="AC236">
+        <v>0.06</v>
+      </c>
+      <c r="AD236">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E237">
+        <v>14</v>
+      </c>
+      <c r="F237" t="s">
+        <v>82</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>13.8</v>
+      </c>
+      <c r="I237">
+        <v>1.04312</v>
+      </c>
+      <c r="J237">
+        <v>14.395</v>
+      </c>
+      <c r="K237">
+        <v>-36.57</v>
+      </c>
+      <c r="N237">
+        <v>14.9</v>
+      </c>
+      <c r="O237">
+        <v>5</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>1</v>
+      </c>
+      <c r="V237">
+        <v>1</v>
+      </c>
+      <c r="X237">
+        <v>14</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z237">
+        <v>1</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB237">
+        <v>0</v>
+      </c>
+      <c r="AC237">
+        <v>0</v>
+      </c>
+      <c r="AD237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E240" t="s">
+        <v>115</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="241" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+      <c r="X241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E242" t="s">
+        <v>65</v>
+      </c>
+      <c r="F242" t="s">
+        <v>66</v>
+      </c>
+      <c r="G242" t="s">
+        <v>67</v>
+      </c>
+      <c r="H242" t="s">
+        <v>89</v>
+      </c>
+      <c r="I242" t="s">
+        <v>97</v>
+      </c>
+      <c r="J242" t="s">
+        <v>98</v>
+      </c>
+      <c r="K242" t="s">
+        <v>90</v>
+      </c>
+      <c r="L242" t="s">
+        <v>91</v>
+      </c>
+      <c r="M242" t="s">
+        <v>99</v>
+      </c>
+      <c r="N242" t="s">
+        <v>92</v>
+      </c>
+      <c r="O242" t="s">
+        <v>100</v>
+      </c>
+      <c r="P242" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>101</v>
+      </c>
+      <c r="R242" t="s">
+        <v>102</v>
+      </c>
+      <c r="S242" t="s">
+        <v>94</v>
+      </c>
+      <c r="T242" t="s">
+        <v>103</v>
+      </c>
+      <c r="U242" t="s">
+        <v>95</v>
+      </c>
+      <c r="V242" t="s">
+        <v>96</v>
+      </c>
+      <c r="X242" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="243" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="s">
+        <v>84</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>69</v>
+      </c>
+      <c r="I243">
+        <v>1.06</v>
+      </c>
+      <c r="J243">
+        <v>73.14</v>
+      </c>
+      <c r="K243">
+        <v>-20.69</v>
+      </c>
+      <c r="L243">
+        <v>156.9</v>
+      </c>
+      <c r="M243">
+        <v>-11.67</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>1</v>
+      </c>
+      <c r="V243">
+        <v>1</v>
+      </c>
+      <c r="X243">
+        <v>1</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z243">
+        <v>1</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB243">
+        <v>0</v>
+      </c>
+      <c r="AC243">
+        <v>0</v>
+      </c>
+      <c r="AD243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244" t="s">
+        <v>75</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>69</v>
+      </c>
+      <c r="I244">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J244">
+        <v>72.105000000000004</v>
+      </c>
+      <c r="K244">
+        <v>-23.92</v>
+      </c>
+      <c r="L244">
+        <v>40</v>
+      </c>
+      <c r="M244">
+        <v>8.81</v>
+      </c>
+      <c r="N244">
+        <v>21.7</v>
+      </c>
+      <c r="O244">
+        <v>12.7</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>1</v>
+      </c>
+      <c r="V244">
+        <v>1</v>
+      </c>
+      <c r="X244">
+        <v>2</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z244">
+        <v>1</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB244">
+        <v>17.53</v>
+      </c>
+      <c r="AC244">
+        <v>0</v>
+      </c>
+      <c r="AD244">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="245" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E245">
+        <v>3</v>
+      </c>
+      <c r="F245" t="s">
+        <v>78</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>69</v>
+      </c>
+      <c r="I245">
+        <v>1.01</v>
+      </c>
+      <c r="J245">
+        <v>69.69</v>
+      </c>
+      <c r="K245">
+        <v>-27.5</v>
+      </c>
+      <c r="L245">
+        <v>65</v>
+      </c>
+      <c r="M245">
+        <v>-8.56</v>
+      </c>
+      <c r="N245">
+        <v>94.2</v>
+      </c>
+      <c r="O245">
+        <v>19</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <v>1</v>
+      </c>
+      <c r="V245">
+        <v>1</v>
+      </c>
+      <c r="X245">
+        <v>3</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z245">
+        <v>1</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB245">
+        <v>10.56</v>
+      </c>
+      <c r="AC245">
+        <v>0</v>
+      </c>
+      <c r="AD245">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="246" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E246">
+        <v>4</v>
+      </c>
+      <c r="F246" t="s">
+        <v>71</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>69</v>
+      </c>
+      <c r="I246">
+        <v>1.04047</v>
+      </c>
+      <c r="J246">
+        <v>71.792000000000002</v>
+      </c>
+      <c r="K246">
+        <v>-27.67</v>
+      </c>
+      <c r="N246">
+        <v>47.8</v>
+      </c>
+      <c r="O246">
+        <v>-3.9</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>1</v>
+      </c>
+      <c r="V246">
+        <v>1</v>
+      </c>
+      <c r="X246">
+        <v>4</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z246">
+        <v>1</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB246">
+        <v>-27.48</v>
+      </c>
+      <c r="AC246">
+        <v>-0.74</v>
+      </c>
+      <c r="AD246">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="247" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247" t="s">
+        <v>80</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>69</v>
+      </c>
+      <c r="I247">
+        <v>1.04267</v>
+      </c>
+      <c r="J247">
+        <v>71.944000000000003</v>
+      </c>
+      <c r="K247">
+        <v>-26.85</v>
+      </c>
+      <c r="N247">
+        <v>7.6</v>
+      </c>
+      <c r="O247">
+        <v>1.6</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <v>1</v>
+      </c>
+      <c r="V247">
+        <v>1</v>
+      </c>
+      <c r="X247">
+        <v>5</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z247">
+        <v>1</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB247">
+        <v>-13.94</v>
+      </c>
+      <c r="AC247">
+        <v>0.47</v>
+      </c>
+      <c r="AD247">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="248" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E248">
+        <v>6</v>
+      </c>
+      <c r="F248" t="s">
+        <v>72</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>13.8</v>
+      </c>
+      <c r="I248">
+        <v>1.07</v>
+      </c>
+      <c r="J248">
+        <v>14.766</v>
+      </c>
+      <c r="K248">
+        <v>-35.56</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="N248">
+        <v>11.2</v>
+      </c>
+      <c r="O248">
+        <v>7.5</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>1</v>
+      </c>
+      <c r="V248">
+        <v>1</v>
+      </c>
+      <c r="X248">
+        <v>6</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z248">
+        <v>1</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB248">
+        <v>52.66</v>
+      </c>
+      <c r="AC248">
+        <v>0</v>
+      </c>
+      <c r="AD248">
+        <v>52.66</v>
+      </c>
+    </row>
+    <row r="249" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E249">
+        <v>7</v>
+      </c>
+      <c r="F249" t="s">
+        <v>74</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>13.8</v>
+      </c>
+      <c r="I249">
+        <v>1.0856699999999999</v>
+      </c>
+      <c r="J249">
+        <v>14.981999999999999</v>
+      </c>
+      <c r="K249">
+        <v>-33.869999999999997</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>1</v>
+      </c>
+      <c r="V249">
+        <v>1</v>
+      </c>
+      <c r="X249">
+        <v>7</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z249">
+        <v>1</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB249">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="AC249">
+        <v>-0.03</v>
+      </c>
+      <c r="AD249">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E250">
+        <v>8</v>
+      </c>
+      <c r="F250" t="s">
+        <v>81</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>18</v>
+      </c>
+      <c r="I250">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J250">
+        <v>19.62</v>
+      </c>
+      <c r="K250">
+        <v>-34.03</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>40.19</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>1</v>
+      </c>
+      <c r="V250">
+        <v>1</v>
+      </c>
+      <c r="X250">
+        <v>8</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z250">
+        <v>1</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB250">
+        <v>1.94</v>
+      </c>
+      <c r="AC250">
+        <v>0</v>
+      </c>
+      <c r="AD250">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="251" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E251">
+        <v>9</v>
+      </c>
+      <c r="F251" t="s">
+        <v>73</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>13.8</v>
+      </c>
+      <c r="I251">
+        <v>1.0715399999999999</v>
+      </c>
+      <c r="J251">
+        <v>14.787000000000001</v>
+      </c>
+      <c r="K251">
+        <v>-35.119999999999997</v>
+      </c>
+      <c r="N251">
+        <v>29.5</v>
+      </c>
+      <c r="O251">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>21.82</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>1</v>
+      </c>
+      <c r="V251">
+        <v>1</v>
+      </c>
+      <c r="X251">
+        <v>9</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z251">
+        <v>1</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB251">
+        <v>0.93</v>
+      </c>
+      <c r="AC251">
+        <v>1.37</v>
+      </c>
+      <c r="AD251">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="252" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E252">
+        <v>10</v>
+      </c>
+      <c r="F252" t="s">
+        <v>76</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>13.8</v>
+      </c>
+      <c r="I252">
+        <v>1.0651900000000001</v>
+      </c>
+      <c r="J252">
+        <v>14.7</v>
+      </c>
+      <c r="K252">
+        <v>-35.33</v>
+      </c>
+      <c r="N252">
+        <v>9</v>
+      </c>
+      <c r="O252">
+        <v>5.8</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>1</v>
+      </c>
+      <c r="V252">
+        <v>1</v>
+      </c>
+      <c r="X252">
+        <v>10</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z252">
+        <v>1</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB252">
+        <v>3.53</v>
+      </c>
+      <c r="AC252">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD252">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="253" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E253">
+        <v>11</v>
+      </c>
+      <c r="F253" t="s">
+        <v>83</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>13.8</v>
+      </c>
+      <c r="I253">
+        <v>1.0705499999999999</v>
+      </c>
+      <c r="J253">
+        <v>14.773999999999999</v>
+      </c>
+      <c r="K253">
+        <v>-34.81</v>
+      </c>
+      <c r="N253">
+        <v>3.5</v>
+      </c>
+      <c r="O253">
+        <v>1.8</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>1</v>
+      </c>
+      <c r="V253">
+        <v>1</v>
+      </c>
+      <c r="X253">
+        <v>11</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z253">
+        <v>1</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB253">
+        <v>-15.39</v>
+      </c>
+      <c r="AC253">
+        <v>0.24</v>
+      </c>
+      <c r="AD253">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="254" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E254">
+        <v>12</v>
+      </c>
+      <c r="F254" t="s">
+        <v>77</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>13.8</v>
+      </c>
+      <c r="I254">
+        <v>1.06857</v>
+      </c>
+      <c r="J254">
+        <v>14.746</v>
+      </c>
+      <c r="K254">
+        <v>-34.99</v>
+      </c>
+      <c r="N254">
+        <v>6.1</v>
+      </c>
+      <c r="O254">
+        <v>1.6</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>1</v>
+      </c>
+      <c r="V254">
+        <v>1</v>
+      </c>
+      <c r="X254">
+        <v>12</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z254">
+        <v>1</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB254">
+        <v>-11.75</v>
+      </c>
+      <c r="AC254">
+        <v>0.16</v>
+      </c>
+      <c r="AD254">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="255" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E255">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>79</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>13.8</v>
+      </c>
+      <c r="I255">
+        <v>1.06308</v>
+      </c>
+      <c r="J255">
+        <v>14.670999999999999</v>
+      </c>
+      <c r="K255">
+        <v>-35.17</v>
+      </c>
+      <c r="N255">
+        <v>13.5</v>
+      </c>
+      <c r="O255">
+        <v>5.8</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>1</v>
+      </c>
+      <c r="V255">
+        <v>1</v>
+      </c>
+      <c r="X255">
+        <v>13</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z255">
+        <v>1</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB255">
+        <v>-21.44</v>
+      </c>
+      <c r="AC255">
+        <v>0.43</v>
+      </c>
+      <c r="AD255">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="256" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E256">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>82</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>13.8</v>
+      </c>
+      <c r="I256">
+        <v>1.0474000000000001</v>
+      </c>
+      <c r="J256">
+        <v>14.454000000000001</v>
+      </c>
+      <c r="K256">
+        <v>-36.44</v>
+      </c>
+      <c r="N256">
+        <v>14.9</v>
+      </c>
+      <c r="O256">
+        <v>5</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <v>1</v>
+      </c>
+      <c r="V256">
+        <v>1</v>
+      </c>
+      <c r="X256">
+        <v>14</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z256">
+        <v>1</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB256">
+        <v>4.05</v>
+      </c>
+      <c r="AC256">
+        <v>-0.19</v>
+      </c>
+      <c r="AD256">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="258" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E258" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="259" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="X259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E260" t="s">
+        <v>65</v>
+      </c>
+      <c r="F260" t="s">
+        <v>66</v>
+      </c>
+      <c r="G260" t="s">
+        <v>67</v>
+      </c>
+      <c r="H260" t="s">
+        <v>89</v>
+      </c>
+      <c r="I260" t="s">
+        <v>97</v>
+      </c>
+      <c r="J260" t="s">
+        <v>98</v>
+      </c>
+      <c r="K260" t="s">
+        <v>90</v>
+      </c>
+      <c r="L260" t="s">
+        <v>91</v>
+      </c>
+      <c r="M260" t="s">
+        <v>99</v>
+      </c>
+      <c r="N260" t="s">
+        <v>92</v>
+      </c>
+      <c r="O260" t="s">
+        <v>100</v>
+      </c>
+      <c r="P260" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>101</v>
+      </c>
+      <c r="R260" t="s">
+        <v>102</v>
+      </c>
+      <c r="S260" t="s">
+        <v>94</v>
+      </c>
+      <c r="T260" t="s">
+        <v>103</v>
+      </c>
+      <c r="U260" t="s">
+        <v>95</v>
+      </c>
+      <c r="V260" t="s">
+        <v>96</v>
+      </c>
+      <c r="X260" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="261" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>84</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>69</v>
+      </c>
+      <c r="I261">
+        <v>1.06</v>
+      </c>
+      <c r="J261">
+        <v>73.14</v>
+      </c>
+      <c r="K261">
+        <v>-20.69</v>
+      </c>
+      <c r="L261">
+        <v>160.78</v>
+      </c>
+      <c r="M261">
+        <v>-10.050000000000001</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>1</v>
+      </c>
+      <c r="V261">
+        <v>1</v>
+      </c>
+      <c r="X261">
+        <v>1</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z261">
+        <v>1</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB261">
+        <v>0</v>
+      </c>
+      <c r="AC261">
+        <v>0</v>
+      </c>
+      <c r="AD261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262" t="s">
+        <v>75</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>69</v>
+      </c>
+      <c r="I262">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J262">
+        <v>72.105000000000004</v>
+      </c>
+      <c r="K262">
+        <v>-23.87</v>
+      </c>
+      <c r="L262">
+        <v>40</v>
+      </c>
+      <c r="M262">
+        <v>5.56</v>
+      </c>
+      <c r="N262">
+        <v>21.7</v>
+      </c>
+      <c r="O262">
+        <v>12.7</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>1</v>
+      </c>
+      <c r="V262">
+        <v>1</v>
+      </c>
+      <c r="X262">
+        <v>2</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z262">
+        <v>1</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB262">
+        <v>0</v>
+      </c>
+      <c r="AC262">
+        <v>0</v>
+      </c>
+      <c r="AD262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E263">
+        <v>3</v>
+      </c>
+      <c r="F263" t="s">
+        <v>78</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>69</v>
+      </c>
+      <c r="I263">
+        <v>1.0183899999999999</v>
+      </c>
+      <c r="J263">
+        <v>70.269000000000005</v>
+      </c>
+      <c r="K263">
+        <v>-27.48</v>
+      </c>
+      <c r="L263">
+        <v>65</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>94.2</v>
+      </c>
+      <c r="O263">
+        <v>19</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>1</v>
+      </c>
+      <c r="V263">
+        <v>1</v>
+      </c>
+      <c r="X263">
+        <v>3</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z263">
+        <v>1</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB263">
+        <v>0</v>
+      </c>
+      <c r="AC263">
+        <v>0</v>
+      </c>
+      <c r="AD263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264" t="s">
+        <v>71</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>69</v>
+      </c>
+      <c r="I264">
+        <v>1.0344800000000001</v>
+      </c>
+      <c r="J264">
+        <v>71.379000000000005</v>
+      </c>
+      <c r="K264">
+        <v>-28.44</v>
+      </c>
+      <c r="N264">
+        <v>47.8</v>
+      </c>
+      <c r="O264">
+        <v>-3.9</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264">
+        <v>1</v>
+      </c>
+      <c r="V264">
+        <v>1</v>
+      </c>
+      <c r="X264">
+        <v>4</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z264">
+        <v>1</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB264">
+        <v>-0.01</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="265" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265" t="s">
+        <v>80</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>69</v>
+      </c>
+      <c r="I265">
+        <v>1.03861</v>
+      </c>
+      <c r="J265">
+        <v>71.664000000000001</v>
+      </c>
+      <c r="K265">
+        <v>-27.48</v>
+      </c>
+      <c r="N265">
+        <v>7.6</v>
+      </c>
+      <c r="O265">
+        <v>1.6</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="S265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>0</v>
+      </c>
+      <c r="U265">
+        <v>1</v>
+      </c>
+      <c r="V265">
+        <v>1</v>
+      </c>
+      <c r="X265">
+        <v>5</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z265">
+        <v>1</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB265">
+        <v>0</v>
+      </c>
+      <c r="AC265">
+        <v>0</v>
+      </c>
+      <c r="AD265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E266">
+        <v>6</v>
+      </c>
+      <c r="F266" t="s">
+        <v>72</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>13.8</v>
+      </c>
+      <c r="I266">
+        <v>1.07</v>
+      </c>
+      <c r="J266">
+        <v>14.766</v>
+      </c>
+      <c r="K266">
+        <v>-35.1</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>35.54</v>
+      </c>
+      <c r="N266">
+        <v>11.2</v>
+      </c>
+      <c r="O266">
+        <v>7.5</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="U266">
+        <v>1</v>
+      </c>
+      <c r="V266">
+        <v>1</v>
+      </c>
+      <c r="X266">
+        <v>6</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z266">
+        <v>1</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB266">
+        <v>0</v>
+      </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E267">
+        <v>7</v>
+      </c>
+      <c r="F267" t="s">
+        <v>74</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>13.8</v>
+      </c>
+      <c r="I267">
+        <v>1.0693900000000001</v>
+      </c>
+      <c r="J267">
+        <v>14.757999999999999</v>
+      </c>
+      <c r="K267">
+        <v>-34.619999999999997</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="S267">
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <v>0</v>
+      </c>
+      <c r="U267">
+        <v>1</v>
+      </c>
+      <c r="V267">
+        <v>1</v>
+      </c>
+      <c r="X267">
+        <v>7</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z267">
+        <v>1</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB267">
+        <v>0</v>
+      </c>
+      <c r="AC267">
+        <v>0</v>
+      </c>
+      <c r="AD267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E268">
+        <v>8</v>
+      </c>
+      <c r="F268" t="s">
+        <v>81</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>18</v>
+      </c>
+      <c r="I268">
+        <v>1.06088</v>
+      </c>
+      <c r="J268">
+        <v>19.096</v>
+      </c>
+      <c r="K268">
+        <v>-34.619999999999997</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>30</v>
+      </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="U268">
+        <v>1</v>
+      </c>
+      <c r="V268">
+        <v>1</v>
+      </c>
+      <c r="X268">
+        <v>8</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z268">
+        <v>1</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB268">
+        <v>0</v>
+      </c>
+      <c r="AC268">
+        <v>0</v>
+      </c>
+      <c r="AD268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E269">
+        <v>9</v>
+      </c>
+      <c r="F269" t="s">
+        <v>73</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>13.8</v>
+      </c>
+      <c r="I269">
+        <v>1.0587899999999999</v>
+      </c>
+      <c r="J269">
+        <v>14.611000000000001</v>
+      </c>
+      <c r="K269">
+        <v>-35.729999999999997</v>
+      </c>
+      <c r="N269">
+        <v>29.5</v>
+      </c>
+      <c r="O269">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>21.3</v>
+      </c>
+      <c r="S269">
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <v>0</v>
+      </c>
+      <c r="U269">
+        <v>1</v>
+      </c>
+      <c r="V269">
+        <v>1</v>
+      </c>
+      <c r="X269">
+        <v>9</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z269">
+        <v>1</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB269">
+        <v>0</v>
+      </c>
+      <c r="AC269">
+        <v>0</v>
+      </c>
+      <c r="AD269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E270">
+        <v>10</v>
+      </c>
+      <c r="F270" t="s">
+        <v>76</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>13.8</v>
+      </c>
+      <c r="I270">
+        <v>1.05338</v>
+      </c>
+      <c r="J270">
+        <v>14.537000000000001</v>
+      </c>
+      <c r="K270">
+        <v>-35.909999999999997</v>
+      </c>
+      <c r="N270">
+        <v>9</v>
+      </c>
+      <c r="O270">
+        <v>5.8</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="U270">
+        <v>1</v>
+      </c>
+      <c r="V270">
+        <v>1</v>
+      </c>
+      <c r="X270">
+        <v>10</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z270">
+        <v>1</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB270">
+        <v>0</v>
+      </c>
+      <c r="AC270">
+        <v>0</v>
+      </c>
+      <c r="AD270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E271">
+        <v>11</v>
+      </c>
+      <c r="F271" t="s">
+        <v>83</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>13.8</v>
+      </c>
+      <c r="I271">
+        <v>1.05816</v>
+      </c>
+      <c r="J271">
+        <v>14.603</v>
+      </c>
+      <c r="K271">
+        <v>-35.630000000000003</v>
+      </c>
+      <c r="N271">
+        <v>3.5</v>
+      </c>
+      <c r="O271">
+        <v>1.8</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+      <c r="U271">
+        <v>1</v>
+      </c>
+      <c r="V271">
+        <v>1</v>
+      </c>
+      <c r="X271">
+        <v>11</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z271">
+        <v>1</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB271">
+        <v>0</v>
+      </c>
+      <c r="AC271">
+        <v>0</v>
+      </c>
+      <c r="AD271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E272">
+        <v>12</v>
+      </c>
+      <c r="F272" t="s">
+        <v>77</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>13.8</v>
+      </c>
+      <c r="I272">
+        <v>1.0553900000000001</v>
+      </c>
+      <c r="J272">
+        <v>14.564</v>
+      </c>
+      <c r="K272">
+        <v>-35.950000000000003</v>
+      </c>
+      <c r="N272">
+        <v>6.1</v>
+      </c>
+      <c r="O272">
+        <v>1.6</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>0</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>0</v>
+      </c>
+      <c r="U272">
+        <v>1</v>
+      </c>
+      <c r="V272">
+        <v>1</v>
+      </c>
+      <c r="X272">
+        <v>12</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z272">
+        <v>1</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB272">
+        <v>0</v>
+      </c>
+      <c r="AC272">
+        <v>0</v>
+      </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E273">
+        <v>13</v>
+      </c>
+      <c r="F273" t="s">
+        <v>79</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>13.8</v>
+      </c>
+      <c r="I273">
+        <v>1.0508299999999999</v>
+      </c>
+      <c r="J273">
+        <v>14.500999999999999</v>
+      </c>
+      <c r="K273">
+        <v>-36.020000000000003</v>
+      </c>
+      <c r="N273">
+        <v>13.5</v>
+      </c>
+      <c r="O273">
+        <v>5.8</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="S273">
+        <v>0</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273">
+        <v>1</v>
+      </c>
+      <c r="V273">
+        <v>1</v>
+      </c>
+      <c r="X273">
+        <v>13</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z273">
+        <v>1</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB273">
+        <v>0</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="E274">
+        <v>14</v>
+      </c>
+      <c r="F274" t="s">
+        <v>82</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>13.8</v>
+      </c>
+      <c r="I274">
+        <v>1.0373699999999999</v>
+      </c>
+      <c r="J274">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="K274">
+        <v>-36.86</v>
+      </c>
+      <c r="N274">
+        <v>14.9</v>
+      </c>
+      <c r="O274">
+        <v>5</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="S274">
+        <v>0</v>
+      </c>
+      <c r="T274">
+        <v>0</v>
+      </c>
+      <c r="U274">
+        <v>1</v>
+      </c>
+      <c r="V274">
+        <v>1</v>
+      </c>
+      <c r="X274">
+        <v>14</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z274">
+        <v>1</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB274">
+        <v>0</v>
+      </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Provvisorio.xlsx
+++ b/Provvisorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\Desktop\UNI\A.A. 2025-2026\ELECTRIC POWER SYSTEM\progetto\ProgettoEPS1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10834079_polimi_it/Documents/Quarto anno/Primo semestre/EPS/Projects/Project 1 - Power Flow Analysis/ProgettoEPS1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20972D-A79D-4283-9D77-17486600C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BE20972D-A79D-4283-9D77-17486600C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74AB93E-AC0D-4520-ADDD-7BADCF24268A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -6592,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F7985-A012-40CC-9F1A-039713B93512}">
   <dimension ref="B6:AQ274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
